--- a/mbs-perturbation/nano/decisionTree/smote/nano-decisionTree-smote-results.xlsx
+++ b/mbs-perturbation/nano/decisionTree/smote/nano-decisionTree-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.6203389830508474</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8779342723004695</v>
+        <v>0.9432989690721649</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.7484662576687116</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9765258215962441</v>
+        <v>0.6498830906578807</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9436619718309859</v>
+        <v>0.9836956521739131</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9392523364485982</v>
+        <v>0.9378238341968912</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9414519906323185</v>
+        <v>0.960212201591512</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9662037646439383</v>
+        <v>0.9935099620746756</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9417040358744395</v>
+        <v>0.8894230769230769</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.9585492227979274</v>
       </c>
       <c r="D4" t="n">
-        <v>0.963302752293578</v>
+        <v>0.9226932668329176</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9810333046794067</v>
+        <v>0.9430585972971528</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6180758017492711</v>
+        <v>0.8779342723004695</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9953051643192489</v>
+        <v>0.9639175257731959</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7625899280575539</v>
+        <v>0.9189189189189189</v>
       </c>
       <c r="E5" t="n">
-        <v>0.712149264916573</v>
+        <v>0.926940334383847</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8860759493670886</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.9278350515463918</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9174877118737463</v>
+        <v>0.9762299022488116</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8779035517643571</v>
+        <v>0.8720805946918592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9568645517967619</v>
+        <v>0.9462849206773143</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9071356008633569</v>
+        <v>0.9015474907045397</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9106799735419816</v>
+        <v>0.8979243773324734</v>
       </c>
     </row>
   </sheetData>
